--- a/Data/测试文件.xlsx
+++ b/Data/测试文件.xlsx
@@ -1113,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1416,6 +1416,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1748,7 +1751,7 @@
     <row r="1" ht="22.5" customHeight="1" s="95">
       <c r="B1" s="5" t="inlineStr">
         <is>
-          <t>样机/版本外发测试(业务人员：   )</t>
+          <t>样机/版本外发测试(业务人员：刘芳芳)</t>
         </is>
       </c>
       <c r="C1" s="96" t="n"/>
@@ -1764,7 +1767,7 @@
         </is>
       </c>
       <c r="C2" s="97" t="n"/>
-      <c r="D2" s="10" t="n"/>
+      <c r="D2" s="10" t="inlineStr"/>
       <c r="E2" s="96" t="n"/>
       <c r="F2" s="96" t="n"/>
       <c r="G2" s="97" t="n"/>
@@ -1776,7 +1779,11 @@
         </is>
       </c>
       <c r="C3" s="97" t="n"/>
-      <c r="D3" s="11" t="n"/>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
       <c r="E3" s="96" t="n"/>
       <c r="F3" s="96" t="n"/>
       <c r="G3" s="98" t="n"/>
@@ -1788,7 +1795,11 @@
         </is>
       </c>
       <c r="C4" s="97" t="n"/>
-      <c r="D4" s="11" t="n"/>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>刘挺挺</t>
+        </is>
+      </c>
       <c r="E4" s="96" t="n"/>
       <c r="F4" s="96" t="n"/>
       <c r="G4" s="98" t="n"/>
@@ -1800,7 +1811,11 @@
         </is>
       </c>
       <c r="C5" s="97" t="n"/>
-      <c r="D5" s="10" t="n"/>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E5" s="96" t="n"/>
       <c r="F5" s="96" t="n"/>
       <c r="G5" s="97" t="n"/>
@@ -1812,7 +1827,11 @@
         </is>
       </c>
       <c r="C6" s="97" t="n"/>
-      <c r="D6" s="10" t="n"/>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>24V</t>
+        </is>
+      </c>
       <c r="E6" s="96" t="n"/>
       <c r="F6" s="96" t="n"/>
       <c r="G6" s="97" t="n"/>
@@ -1841,7 +1860,7 @@
         </is>
       </c>
       <c r="C8" s="97" t="n"/>
-      <c r="D8" s="24" t="n"/>
+      <c r="D8" s="24" t="inlineStr"/>
       <c r="E8" s="96" t="n"/>
       <c r="F8" s="96" t="n"/>
       <c r="G8" s="97" t="n"/>
@@ -1938,9 +1957,9 @@
 确认已下载正确的版本</t>
         </is>
       </c>
-      <c r="E13" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E13" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F13" s="48" t="n"/>
@@ -1959,9 +1978,9 @@
           <t>2. 确认版本为最新的发布版本，版本号正确</t>
         </is>
       </c>
-      <c r="E14" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E14" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F14" s="48" t="n"/>
@@ -1975,9 +1994,9 @@
           <t>3.确认自检页内容完整（打印机型号版本、温度、浓度、语言、字库信息等），字体清晰</t>
         </is>
       </c>
-      <c r="E15" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E15" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F15" s="48" t="n"/>
@@ -2081,7 +2100,7 @@
           <t>产品表面</t>
         </is>
       </c>
-      <c r="E26" s="43" t="inlineStr">
+      <c r="E26" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2097,7 +2116,7 @@
           <t>表面涂层/丝印</t>
         </is>
       </c>
-      <c r="E27" s="43" t="inlineStr">
+      <c r="E27" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2113,9 +2132,9 @@
           <t>金属部件</t>
         </is>
       </c>
-      <c r="E28" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E28" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F28" s="85" t="n"/>
@@ -2129,9 +2148,9 @@
           <t>操作部件</t>
         </is>
       </c>
-      <c r="E29" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E29" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F29" s="85" t="n"/>
@@ -2145,9 +2164,9 @@
           <t>纸卷及碳带的安装</t>
         </is>
       </c>
-      <c r="E30" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E30" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F30" s="85" t="n"/>
@@ -2161,9 +2180,9 @@
           <t>切刀</t>
         </is>
       </c>
-      <c r="E31" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E31" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F31" s="85" t="n"/>
@@ -2177,9 +2196,9 @@
           <t>撕纸</t>
         </is>
       </c>
-      <c r="E32" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E32" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F32" s="85" t="n"/>
@@ -2193,7 +2212,7 @@
           <t>接口部件</t>
         </is>
       </c>
-      <c r="E33" s="43" t="inlineStr">
+      <c r="E33" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2209,7 +2228,7 @@
           <t>告警标识</t>
         </is>
       </c>
-      <c r="E34" s="43" t="inlineStr">
+      <c r="E34" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2225,7 +2244,7 @@
           <t>说明文字</t>
         </is>
       </c>
-      <c r="E35" s="43" t="inlineStr">
+      <c r="E35" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2247,7 +2266,7 @@
           <t>电源线</t>
         </is>
       </c>
-      <c r="E36" s="43" t="inlineStr">
+      <c r="E36" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2263,7 +2282,7 @@
           <t>电源线供电（待机电流）</t>
         </is>
       </c>
-      <c r="E37" s="43" t="inlineStr">
+      <c r="E37" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2279,7 +2298,7 @@
           <t>电源线供电（走纸电流）</t>
         </is>
       </c>
-      <c r="E38" s="43" t="inlineStr">
+      <c r="E38" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2295,7 +2314,7 @@
           <t>电源线供电（平均电流）</t>
         </is>
       </c>
-      <c r="E39" s="43" t="inlineStr">
+      <c r="E39" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2311,9 +2330,9 @@
           <t>电源线供电（峰值电流）</t>
         </is>
       </c>
-      <c r="E40" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E40" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F40" s="85" t="n"/>
@@ -2327,7 +2346,7 @@
           <t>USB线</t>
         </is>
       </c>
-      <c r="E41" s="43" t="inlineStr">
+      <c r="E41" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2347,7 +2366,7 @@
           <t>串口线</t>
         </is>
       </c>
-      <c r="E42" s="43" t="inlineStr">
+      <c r="E42" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2363,7 +2382,7 @@
           <t>TTL口</t>
         </is>
       </c>
-      <c r="E43" s="43" t="inlineStr">
+      <c r="E43" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2379,7 +2398,7 @@
           <t>网口</t>
         </is>
       </c>
-      <c r="E44" s="43" t="inlineStr">
+      <c r="E44" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2395,7 +2414,7 @@
           <t>蓝牙+WiFi</t>
         </is>
       </c>
-      <c r="E45" s="43" t="inlineStr">
+      <c r="E45" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2411,7 +2430,7 @@
           <t>4G</t>
         </is>
       </c>
-      <c r="E46" s="43" t="inlineStr">
+      <c r="E46" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2427,9 +2446,9 @@
           <t>钱箱</t>
         </is>
       </c>
-      <c r="E47" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E47" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F47" s="85" t="n"/>
@@ -2449,7 +2468,7 @@
           <t>电源键</t>
         </is>
       </c>
-      <c r="E48" s="43" t="inlineStr">
+      <c r="E48" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2465,7 +2484,7 @@
           <t>TEST键</t>
         </is>
       </c>
-      <c r="E49" s="43" t="inlineStr">
+      <c r="E49" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2481,7 +2500,7 @@
           <t>Feed走纸键</t>
         </is>
       </c>
-      <c r="E50" s="43" t="inlineStr">
+      <c r="E50" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2497,9 +2516,9 @@
           <t>开关+走纸键打自测页</t>
         </is>
       </c>
-      <c r="E51" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E51" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F51" s="85" t="n"/>
@@ -2513,7 +2532,7 @@
           <t>开关+走纸键进入DUMP</t>
         </is>
       </c>
-      <c r="E52" s="43" t="inlineStr">
+      <c r="E52" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2535,7 +2554,7 @@
           <t>灯色确认</t>
         </is>
       </c>
-      <c r="E53" s="43" t="inlineStr">
+      <c r="E53" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2551,7 +2570,7 @@
           <t>亮度、均匀度确认</t>
         </is>
       </c>
-      <c r="E54" s="43" t="inlineStr">
+      <c r="E54" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2567,7 +2586,7 @@
           <t>串光确认</t>
         </is>
       </c>
-      <c r="E55" s="43" t="inlineStr">
+      <c r="E55" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2583,7 +2602,7 @@
           <t>蜂鸣器响度正常</t>
         </is>
       </c>
-      <c r="E56" s="43" t="inlineStr">
+      <c r="E56" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2605,7 +2624,7 @@
           <t>自动吸纸</t>
         </is>
       </c>
-      <c r="E57" s="43" t="inlineStr">
+      <c r="E57" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2621,7 +2640,7 @@
           <t>轴侦测（开合盖）</t>
         </is>
       </c>
-      <c r="E58" s="43" t="inlineStr">
+      <c r="E58" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2637,7 +2656,7 @@
           <t>缺纸</t>
         </is>
       </c>
-      <c r="E59" s="43" t="inlineStr">
+      <c r="E59" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2653,7 +2672,7 @@
           <t>定位到纸头（纸头侦测）</t>
         </is>
       </c>
-      <c r="E60" s="43" t="inlineStr">
+      <c r="E60" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2669,7 +2688,7 @@
           <t>取纸侦测</t>
         </is>
       </c>
-      <c r="E61" s="43" t="inlineStr">
+      <c r="E61" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2685,7 +2704,7 @@
           <t>纸将尽</t>
         </is>
       </c>
-      <c r="E62" s="43" t="inlineStr">
+      <c r="E62" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2701,7 +2720,7 @@
           <t>黑标</t>
         </is>
       </c>
-      <c r="E63" s="43" t="inlineStr">
+      <c r="E63" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2717,7 +2736,7 @@
           <t>缝标</t>
         </is>
       </c>
-      <c r="E64" s="43" t="inlineStr">
+      <c r="E64" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2733,7 +2752,7 @@
           <t>堵纸</t>
         </is>
       </c>
-      <c r="E65" s="43" t="inlineStr">
+      <c r="E65" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2749,7 +2768,7 @@
           <t>拽纸</t>
         </is>
       </c>
-      <c r="E66" s="43" t="inlineStr">
+      <c r="E66" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2765,7 +2784,7 @@
           <t>过温</t>
         </is>
       </c>
-      <c r="E67" s="43" t="inlineStr">
+      <c r="E67" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2781,7 +2800,7 @@
           <t>切刀回到HOME点</t>
         </is>
       </c>
-      <c r="E68" s="43" t="inlineStr">
+      <c r="E68" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2803,7 +2822,7 @@
           <t>打印机回收票据时间符合工具设置票据回收时间</t>
         </is>
       </c>
-      <c r="E69" s="43" t="inlineStr">
+      <c r="E69" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2823,7 +2842,7 @@
           <t>驱动打印票据回收</t>
         </is>
       </c>
-      <c r="E70" s="43" t="inlineStr">
+      <c r="E70" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2843,7 +2862,7 @@
           <t>按走纸键</t>
         </is>
       </c>
-      <c r="E71" s="43" t="inlineStr">
+      <c r="E71" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2859,7 +2878,7 @@
           <t>连续打印多张，切刀后吐纸回收</t>
         </is>
       </c>
-      <c r="E72" s="77" t="inlineStr">
+      <c r="E72" s="110" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2879,7 +2898,7 @@
           <t>最长可回收纸张</t>
         </is>
       </c>
-      <c r="E73" s="77" t="inlineStr">
+      <c r="E73" s="110" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2895,7 +2914,7 @@
           <t>最短可回收纸张</t>
         </is>
       </c>
-      <c r="E74" s="77" t="inlineStr">
+      <c r="E74" s="110" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2911,7 +2930,7 @@
           <t>吐纸回收最小长度</t>
         </is>
       </c>
-      <c r="E75" s="77" t="inlineStr">
+      <c r="E75" s="110" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2920,14 +2939,14 @@
       <c r="G75" s="79" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="110" t="n"/>
-      <c r="C76" s="111" t="n"/>
+      <c r="B76" s="111" t="n"/>
+      <c r="C76" s="112" t="n"/>
       <c r="D76" s="90" t="inlineStr">
         <is>
           <t>吐纸回收最大长度</t>
         </is>
       </c>
-      <c r="E76" s="77" t="inlineStr">
+      <c r="E76" s="110" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2950,7 +2969,7 @@
 （最大支持纸卷1254打印50张）</t>
         </is>
       </c>
-      <c r="E77" s="43" t="inlineStr">
+      <c r="E77" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2966,7 +2985,7 @@
           <t>支持指令协议确认</t>
         </is>
       </c>
-      <c r="E78" s="43" t="inlineStr">
+      <c r="E78" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2982,7 +3001,7 @@
           <t>驱动打自检页样张</t>
         </is>
       </c>
-      <c r="E79" s="43" t="inlineStr">
+      <c r="E79" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2998,7 +3017,7 @@
           <t>驱动打印Windows</t>
         </is>
       </c>
-      <c r="E80" s="43" t="inlineStr">
+      <c r="E80" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3014,7 +3033,7 @@
           <t>驱动打印Linux</t>
         </is>
       </c>
-      <c r="E81" s="43" t="inlineStr">
+      <c r="E81" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3030,9 +3049,9 @@
           <t>Android打印</t>
         </is>
       </c>
-      <c r="E82" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E82" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F82" s="85" t="n"/>
@@ -3046,9 +3065,9 @@
           <t>小票样张</t>
         </is>
       </c>
-      <c r="E83" s="43" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="E83" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F83" s="85" t="n"/>
@@ -3075,7 +3094,7 @@
 1b 64 04</t>
         </is>
       </c>
-      <c r="E84" s="43" t="inlineStr">
+      <c r="E84" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3091,7 +3110,7 @@
           <t>确认字库</t>
         </is>
       </c>
-      <c r="E85" s="43" t="inlineStr">
+      <c r="E85" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3133,7 +3152,7 @@
         </is>
       </c>
       <c r="F87" s="85" t="n"/>
-      <c r="G87" s="112" t="n"/>
+      <c r="G87" s="113" t="n"/>
     </row>
     <row r="88">
       <c r="B88" s="104" t="n"/>
@@ -3175,7 +3194,7 @@
           <t>打印宽度确认</t>
         </is>
       </c>
-      <c r="E90" s="43" t="inlineStr">
+      <c r="E90" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3191,7 +3210,7 @@
           <t>打印速度确认</t>
         </is>
       </c>
-      <c r="E91" s="43" t="inlineStr">
+      <c r="E91" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3213,7 +3232,7 @@
           <t>最大直径</t>
         </is>
       </c>
-      <c r="E92" s="43" t="inlineStr">
+      <c r="E92" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3229,7 +3248,7 @@
           <t>最小内径</t>
         </is>
       </c>
-      <c r="E93" s="43" t="inlineStr">
+      <c r="E93" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3245,7 +3264,7 @@
           <t>支持纸厚</t>
         </is>
       </c>
-      <c r="E94" s="43" t="inlineStr">
+      <c r="E94" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3261,7 +3280,7 @@
           <t>支持纸宽</t>
         </is>
       </c>
-      <c r="E95" s="43" t="inlineStr">
+      <c r="E95" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3283,7 +3302,7 @@
           <t>电量不足检测告警</t>
         </is>
       </c>
-      <c r="E96" s="43" t="inlineStr">
+      <c r="E96" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3299,7 +3318,7 @@
           <t>充电提醒</t>
         </is>
       </c>
-      <c r="E97" s="43" t="inlineStr">
+      <c r="E97" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3315,7 +3334,7 @@
           <t>满电充电结束提醒</t>
         </is>
       </c>
-      <c r="E98" s="43" t="inlineStr">
+      <c r="E98" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3331,7 +3350,7 @@
           <t>满电电压确认</t>
         </is>
       </c>
-      <c r="E99" s="43" t="inlineStr">
+      <c r="E99" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3353,7 +3372,7 @@
           <t>1. 确认LCD安装准确，无偏移、与两边贴合紧凑</t>
         </is>
       </c>
-      <c r="E100" s="43" t="inlineStr">
+      <c r="E100" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3369,7 +3388,7 @@
           <t>2. 确认LCD显示正常，色彩无失真</t>
         </is>
       </c>
-      <c r="E101" s="43" t="inlineStr">
+      <c r="E101" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3385,7 +3404,7 @@
           <t>3. 确认LCD显示亮度正常，不会出现偏暗或者偏亮现象</t>
         </is>
       </c>
-      <c r="E102" s="43" t="inlineStr">
+      <c r="E102" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3407,7 +3426,7 @@
           <t>通过条码扫描指令12 53 01，执行条码扫描。</t>
         </is>
       </c>
-      <c r="E103" s="43" t="inlineStr">
+      <c r="E103" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3423,7 +3442,7 @@
           <t>边走纸打印边扫描</t>
         </is>
       </c>
-      <c r="E104" s="43" t="inlineStr">
+      <c r="E104" s="85" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -3445,9 +3464,9 @@
           <t>确认客户设置需求：语言、波特率、侦测功能</t>
         </is>
       </c>
-      <c r="E105" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E105" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F105" s="85" t="n"/>
@@ -3461,9 +3480,9 @@
           <t>恢复出厂设置删除所有测试信息（拔出4G卡），按客户需求设置打印机，打印自检页放置打印机内</t>
         </is>
       </c>
-      <c r="E106" s="43" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="E106" s="85" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F106" s="85" t="n"/>
